--- a/data/trans_dic/P32-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.15631032198519</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04041711456400611</v>
+        <v>0.04041711456400612</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02622762486466967</v>
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01325772891904789</v>
+        <v>0.01867249062222819</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1760107181753532</v>
+        <v>0.1798665691482536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1058019550620395</v>
+        <v>0.1026481210762887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01454659459151978</v>
+        <v>0.01458524164518116</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01687671212570625</v>
+        <v>0.01678842714162779</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0361896874070748</v>
+        <v>0.03749509798810111</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>0.01322072367163655</v>
+        <v>0.01330672563055992</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1284839249980929</v>
+        <v>0.1304626410704281</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09190166906134548</v>
+        <v>0.09149960207996492</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0103499211160721</v>
+        <v>0.00928550378464032</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07843466252730209</v>
+        <v>0.07853097914733539</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3099022592715747</v>
+        <v>0.3156469302192086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2250605614702074</v>
+        <v>0.2236135118085602</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08599831399888579</v>
+        <v>0.08309410457579761</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1018866142037478</v>
+        <v>0.07917598495892493</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1455039573482886</v>
+        <v>0.150413358589536</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1580722399763866</v>
+        <v>0.1606083294670745</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.06508746868124589</v>
+        <v>0.06551378194775984</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2252600894769864</v>
+        <v>0.2246821190487259</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1761377714915795</v>
+        <v>0.1757094612568186</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05620777047520243</v>
+        <v>0.05611948911241227</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.01305006491549836</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01613256402527253</v>
+        <v>0.01613256402527252</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01348087794656352</v>
@@ -817,7 +817,7 @@
         <v>0.01084550561657757</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.004927038164763054</v>
+        <v>0.004927038164763055</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04675569061431503</v>
@@ -840,22 +840,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03307728911500394</v>
+        <v>0.03108703224735058</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05906367151183124</v>
+        <v>0.05654046139780986</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003781375226233277</v>
+        <v>0.0037903161500081</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003598691687877758</v>
+        <v>0.003543618042516472</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006625326918403243</v>
+        <v>0.006558660701252583</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02626069036788451</v>
+        <v>0.02581596649028694</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04523604258875342</v>
+        <v>0.04643500195275822</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003616067253345824</v>
+        <v>0.003058206268312939</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.003486842481781894</v>
+        <v>0.003983301387024411</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09748554311872386</v>
+        <v>0.09232534193035936</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1245248287859374</v>
+        <v>0.1264889320563386</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03512380370838511</v>
+        <v>0.03518201615038608</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04628611202927793</v>
+        <v>0.05325724376765705</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06690654017567425</v>
+        <v>0.06895127399033608</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0659087821597006</v>
+        <v>0.06515265497663225</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0439365217475015</v>
+        <v>0.05454902814514595</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02500251631499621</v>
+        <v>0.02179183972985048</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07428864960182864</v>
+        <v>0.07398336599008166</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09527215310997381</v>
+        <v>0.09428481265611349</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0315333459055201</v>
+        <v>0.0289968399388334</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03419944211761849</v>
+        <v>0.03550758192891396</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.006898052863474353</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.02561461612955419</v>
+        <v>0.0256146161295542</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.003547335010931023</v>
@@ -965,7 +965,7 @@
         <v>0.01670370058649794</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09371761884372314</v>
+        <v>0.09371761884372312</v>
       </c>
     </row>
     <row r="11">
@@ -979,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004798647630298635</v>
+        <v>0.004742729820926338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008888027343983361</v>
+        <v>0.008470157044835631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08060565365268003</v>
+        <v>0.08427241631093077</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
@@ -995,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006670301201783553</v>
+        <v>0.007113612089869659</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.005786369627918496</v>
+        <v>0.005685594245397013</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.005833992694967195</v>
+        <v>0.00570053286771368</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06400505664048456</v>
+        <v>0.0632518337126006</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03109377809699969</v>
+        <v>0.02648463101111046</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04707072085264561</v>
+        <v>0.04779465633658578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05317875115906581</v>
+        <v>0.05028404962029015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1766315033367071</v>
+        <v>0.1842262950052103</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.03890558783145547</v>
+        <v>0.04211476454739124</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03536370218792254</v>
+        <v>0.03675659112764036</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06105395281342409</v>
+        <v>0.06113952911023723</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0176637862042632</v>
+        <v>0.01775275686178509</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03359156530046391</v>
+        <v>0.03025954871712937</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03304060959198013</v>
+        <v>0.0335156985458771</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1341747338029108</v>
+        <v>0.1350871973806363</v>
       </c>
     </row>
     <row r="13">
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02382358046403279</v>
+        <v>0.02366293005069107</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01630377723006017</v>
+        <v>0.01537505523828053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01861023386870892</v>
+        <v>0.02063661101517352</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01879878334330688</v>
+        <v>0.02002694326908909</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01121898408537249</v>
+        <v>0.008819651796552154</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02455957655531623</v>
+        <v>0.02457566165965347</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01737002487875802</v>
+        <v>0.01731912549469036</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01696935004002834</v>
+        <v>0.01661676836672303</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01421139166787651</v>
+        <v>0.01448575182693988</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08211358392552544</v>
+        <v>0.08265731852283627</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08312768547333267</v>
+        <v>0.08386272115360122</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07754138116688562</v>
+        <v>0.07710703975781162</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08360468362180963</v>
+        <v>0.0821345486701522</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08428962489170903</v>
+        <v>0.08588608236858991</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06641775207457361</v>
+        <v>0.06492998403335325</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06410703945405268</v>
+        <v>0.05883586475689145</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02341640570510514</v>
+        <v>0.02588589065256811</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07009034928816381</v>
+        <v>0.06887526679953468</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06501802130153811</v>
+        <v>0.06786949054410031</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05739153606172955</v>
+        <v>0.05696858889765339</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05276758840687025</v>
+        <v>0.05288941254210048</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02980607690250676</v>
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008279563412227268</v>
+        <v>0.008376341959660258</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04628653819208308</v>
+        <v>0.0476359788177101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01025421948676396</v>
+        <v>0.0101167180865698</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
@@ -1264,13 +1264,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.006494581709836363</v>
+        <v>0.01023795242823691</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03567782514672976</v>
+        <v>0.03801507982680936</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.007297020082942545</v>
+        <v>0.007293988229198993</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>0</v>
@@ -1284,36 +1284,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07372309636975628</v>
+        <v>0.07302064398629894</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.148896251951543</v>
+        <v>0.1537840103307838</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08602822390101678</v>
+        <v>0.07723546284601064</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.1795640671530949</v>
+        <v>0.1754386376178482</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07585719620247434</v>
+        <v>0.08207024545497156</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07293248321544894</v>
+        <v>0.07183270727523255</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1095584726909139</v>
+        <v>0.1096552476082422</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06293314948222994</v>
+        <v>0.0594918018444033</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.02270536289777444</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.04612390103328343</v>
+        <v>0.04612390103328345</v>
       </c>
     </row>
     <row r="20">
@@ -1372,16 +1372,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.005401329771478862</v>
+        <v>0.005326266063058801</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01293569819951549</v>
+        <v>0.01197997795879818</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.009843320947222164</v>
+        <v>0.009915948981599164</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03169856417945287</v>
+        <v>0.02985980371134925</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1393,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.008433623804990284</v>
+        <v>0.008246449755281538</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009352329111797592</v>
+        <v>0.009018172176453364</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01085957639989821</v>
+        <v>0.01053214177281562</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.009769646051172682</v>
+        <v>0.009817340063060826</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02793740368193215</v>
+        <v>0.02738777092264222</v>
       </c>
     </row>
     <row r="21">
@@ -1416,40 +1416,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06309697233274575</v>
+        <v>0.05520344824376316</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07041026454655035</v>
+        <v>0.0755321179641492</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05529207570854029</v>
+        <v>0.05681156914977275</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09814748774676285</v>
+        <v>0.09611197171420693</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0547520914808519</v>
+        <v>0.05332306041278488</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05745968032527519</v>
+        <v>0.05948109746434598</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0625650869559385</v>
+        <v>0.06317908602355436</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.070387652937405</v>
+        <v>0.06818180567449834</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04645711970607659</v>
+        <v>0.04390198355451038</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05085285527084541</v>
+        <v>0.05096771379539631</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04530787316204572</v>
+        <v>0.04220167674008651</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07343647704526327</v>
+        <v>0.07357157239111074</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.07104587604176284</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.08659712375919995</v>
+        <v>0.08659712375919994</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.01248349271854244</v>
@@ -1508,38 +1508,38 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006147620149799786</v>
+        <v>0.006369856439541043</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03050893825847245</v>
+        <v>0.02840041048356481</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06643600832494294</v>
+        <v>0.06543443147114751</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1041791295749751</v>
+        <v>0.1003638667733414</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
-        <v>0.004531877065535816</v>
+        <v>0.004572551893088511</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04381163835710034</v>
+        <v>0.04366603606679518</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05173995577667281</v>
+        <v>0.05006197430525777</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00429673640139624</v>
+        <v>0.004346426139964764</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02460706982998037</v>
+        <v>0.02360229706162254</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06584546070676858</v>
+        <v>0.06608639459164042</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.09113645863403322</v>
+        <v>0.09104389565867277</v>
       </c>
     </row>
     <row r="24">
@@ -1550,38 +1550,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03991393156274055</v>
+        <v>0.03823652430772635</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0748415165640935</v>
+        <v>0.07642644067957152</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1367835765205658</v>
+        <v>0.1345046037698515</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1959962295425874</v>
+        <v>0.1927171057238328</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.04084114303620216</v>
+        <v>0.03936847089458986</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1078227161264249</v>
+        <v>0.1084439767153836</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1377022075629026</v>
+        <v>0.1339577764876837</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0294956546005387</v>
+        <v>0.02827049434723109</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05628208109967148</v>
+        <v>0.05635660720318315</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1151732394943103</v>
+        <v>0.1140253919923444</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1572628876436335</v>
+        <v>0.1560891109318381</v>
       </c>
     </row>
     <row r="25">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007297292691374389</v>
+        <v>0.007455249592328804</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0250561564026441</v>
+        <v>0.02496273350422774</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01794881361508383</v>
+        <v>0.0180108321641648</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.00941107668524451</v>
+        <v>0.009518150157386544</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.004976923424889803</v>
+        <v>0.005026992688461078</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.004043916367085482</v>
+        <v>0.003960768806063146</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.007228523333373094</v>
+        <v>0.01148251929995985</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.007166485574305827</v>
+        <v>0.007100095163317435</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02275356438688203</v>
+        <v>0.02145490309410944</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01578757090406208</v>
+        <v>0.01507925530993995</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01258472745940261</v>
+        <v>0.01284707778652635</v>
       </c>
     </row>
     <row r="27">
@@ -1684,40 +1684,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03296467117592886</v>
+        <v>0.03300130101483065</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0696599436070541</v>
+        <v>0.06757650494984359</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05074796631144085</v>
+        <v>0.05351003454494108</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04441487486749741</v>
+        <v>0.04200404123825702</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02839329744913018</v>
+        <v>0.02902808812665165</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04913625013523862</v>
+        <v>0.04691370023926111</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04025281082783388</v>
+        <v>0.03918793051304185</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07852824393969023</v>
+        <v>0.080231052208989</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02546984672515434</v>
+        <v>0.02497961204208556</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.05489808118222231</v>
+        <v>0.05490613175432596</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04139860926534455</v>
+        <v>0.03802620810302423</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04451626548308392</v>
+        <v>0.04125382039458252</v>
       </c>
     </row>
     <row r="28">
@@ -1741,7 +1741,7 @@
         <v>0.05257904566661846</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.06497170862264531</v>
+        <v>0.0649717086226453</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.01479901423863817</v>
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02008156014328001</v>
+        <v>0.02065811607596086</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05652300715525838</v>
+        <v>0.05676929274035208</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.04294504020214137</v>
+        <v>0.042748991621025</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05230373750540503</v>
+        <v>0.05318676369170892</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.007485294750925677</v>
+        <v>0.007970974446670739</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01353804092816569</v>
+        <v>0.01331594068104769</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.02391038757732943</v>
+        <v>0.02259258061296654</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02429401313399493</v>
+        <v>0.02329307808691432</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01829445641293876</v>
+        <v>0.0175290413648806</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.04348286815153993</v>
+        <v>0.04411528552267046</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03841858694651847</v>
+        <v>0.03832384104168201</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.04572191984323507</v>
+        <v>0.04414695530833349</v>
       </c>
     </row>
     <row r="30">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03492730951804354</v>
+        <v>0.03590607015298731</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.07999481895838999</v>
+        <v>0.07959436195251264</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.06420759252150615</v>
+        <v>0.06389590971081222</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.07937799644732528</v>
+        <v>0.07928383363642615</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02579550541961917</v>
+        <v>0.02617531041399257</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.03367722755220391</v>
+        <v>0.03297407407012681</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.04550556290638092</v>
+        <v>0.04485178710969769</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.05281269096231031</v>
+        <v>0.04987742228309101</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03009977908229163</v>
+        <v>0.02978795583620871</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.06084198819087693</v>
+        <v>0.06047595843470529</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.05387727321360513</v>
+        <v>0.0533740069602535</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.0654815182361468</v>
+        <v>0.06480990288459665</v>
       </c>
     </row>
     <row r="31">
@@ -2128,38 +2128,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1938</v>
+        <v>2729</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>30859</v>
+        <v>31535</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18904</v>
+        <v>18340</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2471</v>
+        <v>2478</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1834</v>
+        <v>1824</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3768</v>
+        <v>3904</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="n">
-        <v>2904</v>
+        <v>2922</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36487</v>
+        <v>37049</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25989</v>
+        <v>25875</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2765</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="7">
@@ -2170,38 +2170,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11463</v>
+        <v>11477</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>54334</v>
+        <v>55341</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40212</v>
+        <v>39953</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14611</v>
+        <v>14118</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7486</v>
+        <v>5818</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15810</v>
+        <v>16343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16458</v>
+        <v>16722</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>14295</v>
+        <v>14388</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>63969</v>
+        <v>63805</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>49810</v>
+        <v>49689</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>15015</v>
+        <v>14991</v>
       </c>
     </row>
     <row r="8">
@@ -2304,22 +2304,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7569</v>
+        <v>7113</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18317</v>
+        <v>17534</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
@@ -2328,16 +2328,16 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>7919</v>
+        <v>7785</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>20876</v>
+        <v>21429</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1338</v>
+        <v>1132</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1328</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="11">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22306</v>
+        <v>21126</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38618</v>
+        <v>39227</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9404</v>
+        <v>9420</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11975</v>
+        <v>13778</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4868</v>
+        <v>5016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9976</v>
+        <v>9862</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>4493</v>
+        <v>5578</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3055</v>
+        <v>2663</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22403</v>
+        <v>22311</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>43966</v>
+        <v>43511</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11667</v>
+        <v>10729</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>13026</v>
+        <v>13524</v>
       </c>
     </row>
     <row r="12">
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1815</v>
+        <v>1729</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15098</v>
+        <v>15785</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
@@ -2503,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1893</v>
+        <v>1860</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1906</v>
+        <v>1862</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17699</v>
+        <v>17491</v>
       </c>
     </row>
     <row r="15">
@@ -2526,38 +2526,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6030</v>
+        <v>5136</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9531</v>
+        <v>9677</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10858</v>
+        <v>10267</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33085</v>
+        <v>34508</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>4850</v>
+        <v>5250</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4331</v>
+        <v>4502</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5447</v>
+        <v>5454</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4962</v>
+        <v>4987</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>10989</v>
+        <v>9899</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10793</v>
+        <v>10948</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>37102</v>
+        <v>37355</v>
       </c>
     </row>
     <row r="16">
@@ -2660,19 +2660,19 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5668</v>
+        <v>5629</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3100</v>
+        <v>2924</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4344</v>
+        <v>4817</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3824</v>
+        <v>4074</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1469</v>
+        <v>1155</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9058</v>
+        <v>9064</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4820</v>
+        <v>4806</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6523</v>
+        <v>6388</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4857</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="19">
@@ -2704,40 +2704,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19534</v>
+        <v>19664</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15808</v>
+        <v>15948</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18099</v>
+        <v>17997</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17008</v>
+        <v>16709</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11036</v>
+        <v>11245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5801</v>
+        <v>5671</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9681</v>
+        <v>8885</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3240</v>
+        <v>3582</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25851</v>
+        <v>25403</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>18043</v>
+        <v>18834</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>22063</v>
+        <v>21900</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>18036</v>
+        <v>18078</v>
       </c>
     </row>
     <row r="20">
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5934</v>
+        <v>6107</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
@@ -2860,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>930</v>
+        <v>1467</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6505</v>
+        <v>6931</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>932</v>
@@ -2880,36 +2880,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7144</v>
+        <v>7076</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19090</v>
+        <v>19716</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7767</v>
+        <v>6974</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>8324</v>
+        <v>8133</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>4105</v>
+        <v>4441</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10448</v>
+        <v>10290</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>19974</v>
+        <v>19992</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8041</v>
+        <v>7601</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="24">
@@ -3012,16 +3012,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2383</v>
+        <v>2207</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1861</v>
+        <v>1875</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5166</v>
+        <v>4866</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -3033,19 +3033,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2862</v>
+        <v>2760</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>3024</v>
+        <v>2933</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2870</v>
+        <v>2884</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>7296</v>
+        <v>7153</v>
       </c>
     </row>
     <row r="27">
@@ -3056,40 +3056,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12259</v>
+        <v>10725</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12973</v>
+        <v>13917</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10453</v>
+        <v>10740</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15995</v>
+        <v>15664</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6120</v>
+        <v>5961</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5413</v>
+        <v>5603</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6552</v>
+        <v>6617</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6912</v>
+        <v>6695</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>14219</v>
+        <v>13437</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>14160</v>
+        <v>14192</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>13311</v>
+        <v>12398</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>19179</v>
+        <v>19214</v>
       </c>
     </row>
     <row r="28">
@@ -3192,38 +3192,38 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1783</v>
+        <v>1847</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>12126</v>
+        <v>11288</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>25277</v>
+        <v>24896</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>36432</v>
+        <v>35098</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>11346</v>
+        <v>11308</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>12161</v>
+        <v>11767</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1815</v>
+        <v>1836</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>15059</v>
+        <v>14444</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>42104</v>
+        <v>42258</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>53292</v>
+        <v>53238</v>
       </c>
     </row>
     <row r="31">
@@ -3234,38 +3234,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11576</v>
+        <v>11090</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>29747</v>
+        <v>30377</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>52042</v>
+        <v>51175</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>68541</v>
+        <v>67394</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>8761</v>
+        <v>8446</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>27922</v>
+        <v>28083</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>32367</v>
+        <v>31487</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>12459</v>
+        <v>11942</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>34444</v>
+        <v>34490</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>73646</v>
+        <v>72912</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>91960</v>
+        <v>91274</v>
       </c>
     </row>
     <row r="32">
@@ -3368,40 +3368,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3597</v>
+        <v>3675</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>11341</v>
+        <v>11298</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>8192</v>
+        <v>8221</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2958</v>
+        <v>2992</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>831</v>
+        <v>1320</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>5252</v>
+        <v>5203</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>15212</v>
+        <v>14344</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>11394</v>
+        <v>10883</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>5402</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="35">
@@ -3412,40 +3412,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>16248</v>
+        <v>16266</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>31529</v>
+        <v>30586</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>23163</v>
+        <v>24423</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>13961</v>
+        <v>13203</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6813</v>
+        <v>6965</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>10612</v>
+        <v>10132</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>10678</v>
+        <v>10395</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>9027</v>
+        <v>9223</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>18665</v>
+        <v>18306</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>36703</v>
+        <v>36709</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>29877</v>
+        <v>27443</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>19110</v>
+        <v>17710</v>
       </c>
     </row>
     <row r="36">
@@ -3548,40 +3548,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>37771</v>
+        <v>38856</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>115342</v>
+        <v>115844</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>85900</v>
+        <v>85508</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>87897</v>
+        <v>89381</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>6696</v>
+        <v>7131</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>14226</v>
+        <v>13992</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>27409</v>
+        <v>25898</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>22011</v>
+        <v>21104</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>50776</v>
+        <v>48652</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>134424</v>
+        <v>136379</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>120886</v>
+        <v>120588</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>118261</v>
+        <v>114188</v>
       </c>
     </row>
     <row r="39">
@@ -3592,40 +3592,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>65695</v>
+        <v>67536</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>163239</v>
+        <v>162422</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>128430</v>
+        <v>127807</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>133395</v>
+        <v>133237</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>23076</v>
+        <v>23416</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>35388</v>
+        <v>34649</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>52163</v>
+        <v>51414</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>47850</v>
+        <v>45190</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>83542</v>
+        <v>82676</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>188089</v>
+        <v>186957</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>169527</v>
+        <v>167944</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>169370</v>
+        <v>167633</v>
       </c>
     </row>
     <row r="40">
